--- a/example_data/scenarios.xlsx
+++ b/example_data/scenarios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="scenario" sheetId="1" state="visible" r:id="rId3"/>
@@ -135,25 +135,25 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -340,190 +340,194 @@
   </sheetPr>
   <dimension ref="A1:A57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
+      <c r="A4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
+      <c r="A5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
+      <c r="A6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
+      <c r="A7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
+      <c r="A8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
+      <c r="A9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
+      <c r="A10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
+      <c r="A11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
+      <c r="A12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
+      <c r="A13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1"/>
+      <c r="A14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
+      <c r="A15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
+      <c r="A16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
+      <c r="A17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
+      <c r="A18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1"/>
+      <c r="A19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1"/>
+      <c r="A20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1"/>
+      <c r="A21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
+      <c r="A22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1"/>
+      <c r="A23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1"/>
+      <c r="A24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1"/>
+      <c r="A25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1"/>
+      <c r="A26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1"/>
+      <c r="A27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1"/>
+      <c r="A28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1"/>
+      <c r="A29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1"/>
+      <c r="A30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1"/>
+      <c r="A31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1"/>
+      <c r="A32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1"/>
+      <c r="A33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1"/>
+      <c r="A34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1"/>
+      <c r="A35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1"/>
+      <c r="A36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1"/>
+      <c r="A37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1"/>
+      <c r="A38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1"/>
+      <c r="A39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1"/>
+      <c r="A40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1"/>
+      <c r="A41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1"/>
+      <c r="A42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1"/>
+      <c r="A43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1"/>
+      <c r="A44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1"/>
+      <c r="A45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1"/>
+      <c r="A46" s="4"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1"/>
+      <c r="A47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1"/>
+      <c r="A48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1"/>
+      <c r="A49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1"/>
+      <c r="A50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1"/>
+      <c r="A51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1"/>
+      <c r="A52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1"/>
+      <c r="A53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1"/>
+      <c r="A54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1"/>
+      <c r="A55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1"/>
+      <c r="A56" s="4"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1"/>
+      <c r="A57" s="4"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="true" objects="true" scenarios="true"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -542,10 +546,13 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -553,16 +560,17 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="true" objects="true" scenarios="true"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -580,35 +588,36 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="12.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="12.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="16.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="17.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
